--- a/feedback_forms/testing_versions/standard/landfill_operator_feedback_v071_test_01_good_data.xlsx
+++ b/feedback_forms/testing_versions/standard/landfill_operator_feedback_v071_test_01_good_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CC271-BE5B-4FFE-B9A9-2A583DD25701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80654111-FE0C-4691-800F-F39AE9B53F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7Hr+YL1jIpBbxZv21sF31usCR51Asp9LP+e5HWvyUg8p3wHPaDaDDxsW/ntgnTLlzyLnfIvI0O02Z3Twxn9OOQ==" workbookSaltValue="Kfqgplwdib6wamvbyO4zTw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3927" yWindow="1360" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="7251" yWindow="4903" windowWidth="21729" windowHeight="13260" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -2760,12 +2760,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3951,21 +3951,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="E2" s="31"/>
       <c r="F2" s="76"/>
     </row>
-    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
@@ -4019,13 +4019,13 @@
       <c r="E3" s="31"/>
       <c r="F3" s="77"/>
     </row>
-    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
@@ -4095,12 +4095,12 @@
       <c r="AF6" s="67"/>
       <c r="AG6" s="67"/>
     </row>
-    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG7" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="68" t="s">
         <v>3</v>
       </c>
@@ -4109,7 +4109,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="64"/>
     </row>
-    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="69" t="s">
         <v>4</v>
       </c>
@@ -4118,7 +4118,7 @@
       <c r="E9" s="35"/>
       <c r="F9" s="64"/>
     </row>
-    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="70" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4127,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="64"/>
     </row>
-    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="71" t="s">
         <v>6</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="64"/>
     </row>
-    <row r="12" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="68" t="s">
         <v>7</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="E12" s="35"/>
       <c r="F12" s="64"/>
     </row>
-    <row r="13" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="68" t="s">
         <v>8</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="64"/>
     </row>
-    <row r="14" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="68" t="s">
         <v>9</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="E14" s="35"/>
       <c r="F14" s="64"/>
     </row>
-    <row r="15" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B15" s="68" t="s">
         <v>10</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="64"/>
     </row>
-    <row r="16" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B16" s="68" t="s">
         <v>11</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="64"/>
     </row>
-    <row r="17" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B17" s="68" t="s">
         <v>12</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="E17" s="35"/>
       <c r="F17" s="64"/>
     </row>
-    <row r="18" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="72" t="s">
         <v>13</v>
       </c>
@@ -4199,12 +4199,12 @@
       <c r="E18" s="35"/>
       <c r="F18" s="64"/>
     </row>
-    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG20" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
@@ -4238,23 +4238,23 @@
       <c r="AF21" s="67"/>
       <c r="AG21" s="67"/>
     </row>
-    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG22" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="68" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="78">
-        <v>2041</v>
+        <v>1002041</v>
       </c>
       <c r="E23" s="68"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B24" s="68" t="s">
         <v>15</v>
       </c>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="E24" s="35"/>
     </row>
-    <row r="25" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B25" s="68" t="s">
         <v>16</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="E25" s="35"/>
     </row>
-    <row r="26" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B26" s="68" t="s">
         <v>17</v>
       </c>
@@ -4285,7 +4285,7 @@
       <c r="E26" s="68"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B27" s="68" t="s">
         <v>18</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="E27" s="68"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B28" s="68" t="s">
         <v>19</v>
       </c>
@@ -4308,12 +4308,12 @@
       <c r="F28" s="64"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG29" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
       <c r="D30" s="66"/>
@@ -4347,23 +4347,23 @@
       <c r="AF30" s="67"/>
       <c r="AG30" s="67"/>
     </row>
-    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG31" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B32" s="64" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="81" t="s">
         <v>450</v>
       </c>
       <c r="E32" s="65"/>
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B33" s="64" t="s">
         <v>23</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="E33" s="65"/>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B34" s="64" t="s">
         <v>25</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="E34" s="65"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B35" s="64" t="s">
         <v>27</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="E35" s="65"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B36" s="64" t="s">
         <v>29</v>
       </c>
@@ -4407,12 +4407,12 @@
       <c r="E36" s="65"/>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG37" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="66"/>
       <c r="C38" s="66"/>
       <c r="D38" s="66"/>
@@ -4446,12 +4446,12 @@
       <c r="AF38" s="67"/>
       <c r="AG38" s="67"/>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG39" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B40" s="64" t="s">
         <v>31</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="E40" s="37"/>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:33" s="20" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="38" t="s">
         <v>32</v>
       </c>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="64" t="s">
         <v>34</v>
       </c>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="20" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B43" s="38" t="s">
         <v>36</v>
       </c>
@@ -4492,12 +4492,12 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG44" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="66"/>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
@@ -4531,17 +4531,17 @@
       <c r="AF45" s="67"/>
       <c r="AG45" s="67"/>
     </row>
-    <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="81" t="s">
+    <row r="46" spans="2:33" s="30" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B47" s="38" t="s">
         <v>39</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B48" s="47" t="s">
         <v>40</v>
       </c>
@@ -4564,7 +4564,7 @@
       <c r="E48" s="30"/>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:33" s="20" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="38" t="s">
         <v>41</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="E49" s="30"/>
       <c r="G49" s="36"/>
     </row>
-    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="38" t="s">
         <v>42</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="G50" s="36"/>
     </row>
-    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="38" t="s">
         <v>43</v>
       </c>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="G51" s="36"/>
     </row>
-    <row r="52" spans="2:33" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:33" s="20" customFormat="1" ht="46.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="38" t="s">
         <v>44</v>
       </c>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="64" t="s">
         <v>46</v>
       </c>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G53" s="36"/>
     </row>
-    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" s="64" t="s">
         <v>47</v>
       </c>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="G54" s="36"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="64" t="s">
         <v>48</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="G55" s="36"/>
     </row>
-    <row r="56" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="20" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B56" s="38" t="s">
         <v>49</v>
       </c>
@@ -4642,12 +4642,12 @@
       </c>
       <c r="G56" s="36"/>
     </row>
-    <row r="57" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B57" s="65"/>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
     </row>
-    <row r="58" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="66"/>
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
@@ -4681,21 +4681,21 @@
       <c r="AF58" s="67"/>
       <c r="AG58" s="67"/>
     </row>
-    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG59" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:33" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B60" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D60" s="82" t="s">
+      <c r="D60" s="81" t="s">
         <v>459</v>
       </c>
       <c r="G60" s="36"/>
     </row>
-    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B61" s="64" t="s">
         <v>53</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="G61" s="36"/>
     </row>
-    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B62" s="38" t="s">
         <v>54</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="G62" s="36"/>
     </row>
-    <row r="63" spans="2:33" s="20" customFormat="1" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:33" s="20" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="38" t="s">
         <v>55</v>
       </c>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G63" s="36"/>
     </row>
-    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="64" t="s">
         <v>56</v>
       </c>
@@ -4731,16 +4731,16 @@
       </c>
       <c r="G64" s="36"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:7" s="20" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D65" s="82" t="s">
+      <c r="D65" s="81" t="s">
         <v>460</v>
       </c>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B66" s="64" t="s">
         <v>59</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="20" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B67" s="64" t="s">
         <v>60</v>
       </c>
@@ -4758,15 +4758,15 @@
       </c>
       <c r="G67" s="36"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B68" s="65"/>
       <c r="D68" s="39"/>
     </row>
-    <row r="69" spans="2:7" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G69" s="36"/>
     </row>
-    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B71" s="64" t="s">
         <v>62</v>
       </c>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="G71" s="36"/>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B72" s="64" t="s">
         <v>63</v>
       </c>
@@ -4784,12 +4784,12 @@
       </c>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B73" s="38" t="s">
         <v>64</v>
       </c>
       <c r="C73" s="41"/>
-      <c r="D73" s="82" t="s">
+      <c r="D73" s="81" t="s">
         <v>461</v>
       </c>
       <c r="G73" s="36"/>
@@ -4965,19 +4965,19 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="80.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="15" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -5001,17 +5001,17 @@
         <v>437</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="16" t="s">
         <v>438</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="16"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>439</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>441</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B13" s="23" t="s">
         <v>443</v>
       </c>
@@ -5044,67 +5044,67 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="23"/>
       <c r="C15" s="75"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -5128,18 +5128,18 @@
       <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="21" t="s">
         <v>66</v>
       </c>
@@ -5147,7 +5147,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -5161,7 +5161,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -5169,15 +5169,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B7" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" s="23" t="s">
         <v>72</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>76</v>
       </c>
@@ -5218,7 +5218,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="23" t="s">
         <v>78</v>
       </c>
@@ -5229,15 +5229,15 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" s="20"/>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" s="20"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
         <v>80</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5268,7 +5268,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>81</v>
       </c>
@@ -5299,7 +5299,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B19" s="20">
         <v>1</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B21" s="20">
         <v>3</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="20">
         <v>4</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B23" s="20">
         <v>5</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="20">
         <v>6</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B25" s="20">
         <v>7</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B26" s="20">
         <v>8</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B27" s="20">
         <v>9</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="20">
         <v>10</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B29" s="20">
         <v>11</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B30" s="20">
         <v>12</v>
       </c>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="20">
         <v>13</v>
       </c>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="2:18" s="20" customFormat="1" ht="157.69999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="20" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B32" s="20">
         <v>14</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>15</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B34" s="20">
         <v>16</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B35" s="20">
         <v>17</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B36" s="20">
         <v>18</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B37" s="20">
         <v>19</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B38" s="20">
         <v>20</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B39" s="20">
         <v>21</v>
       </c>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B40" s="20">
         <v>22</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B41" s="20">
         <v>23</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B42" s="20">
         <v>24</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B43" s="20">
         <v>25</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="20" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B44" s="20">
         <v>26</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B45" s="20">
         <v>27</v>
       </c>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B46" s="20">
         <v>28</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="20" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B47" s="20">
         <v>29</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B48" s="20">
         <v>30</v>
       </c>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B49" s="20">
         <v>31</v>
       </c>
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B50" s="20">
         <v>32</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B51" s="20">
         <v>33</v>
       </c>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B52" s="20">
         <v>34</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B53" s="20">
         <v>35</v>
       </c>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" s="20">
         <v>36</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="20">
         <v>37</v>
       </c>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="20">
         <v>38</v>
       </c>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.5">
       <c r="B57" s="20">
         <v>39</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="G57" s="23"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B58" s="20">
         <v>40</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B59" s="20">
         <v>41</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B60" s="20">
         <v>42</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B61" s="20">
         <v>43</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="20">
         <v>44</v>
       </c>
@@ -6197,7 +6197,7 @@
       </c>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B63" s="20">
         <v>45</v>
       </c>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B64" s="20">
         <v>46</v>
       </c>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B65" s="20">
         <v>47</v>
       </c>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B66" s="20">
         <v>48</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="20">
         <v>49</v>
       </c>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="20">
         <v>50</v>
       </c>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" s="20">
         <v>51</v>
       </c>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="G69" s="23"/>
     </row>
-    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="20">
         <v>52</v>
       </c>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G70" s="23"/>
     </row>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B71" s="20">
         <v>53</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B72" s="20">
         <v>54</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B73" s="20">
         <v>55</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B74" s="20">
         <v>56</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B75" s="20">
         <v>57</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B76" s="20">
         <v>58</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B77" s="20">
         <v>59</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B78" s="20">
         <v>60</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B79" s="20">
         <v>61</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B80" s="20">
         <v>62</v>
       </c>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="G80" s="23"/>
     </row>
-    <row r="81" spans="2:7" s="20" customFormat="1" ht="172" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="20" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B81" s="20">
         <v>63</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B82" s="20">
         <v>64</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="20">
         <v>65</v>
       </c>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="G83" s="23"/>
     </row>
-    <row r="84" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B84" s="20">
         <v>66</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="85" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B85" s="20">
         <v>67</v>
       </c>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G85" s="23"/>
     </row>
-    <row r="86" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B86" s="20">
         <v>68</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B87" s="20">
         <v>69</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="88" spans="2:7" s="20" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="20" customFormat="1" ht="262.3" x14ac:dyDescent="0.4">
       <c r="B88" s="20">
         <v>70</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="2:7" s="20" customFormat="1" ht="258" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="20" customFormat="1" ht="291.45" x14ac:dyDescent="0.4">
       <c r="B89" s="20" t="s">
         <v>214</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B90" s="20" t="s">
         <v>217</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="91" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B91" s="20" t="s">
         <v>220</v>
       </c>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="G91" s="48"/>
     </row>
-    <row r="92" spans="2:7" s="20" customFormat="1" ht="186.35" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="20" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B92" s="20">
         <v>71</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B93" s="20">
         <v>71</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B94" s="20">
         <v>72</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="95" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="20">
         <v>73</v>
       </c>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="G95" s="23"/>
     </row>
-    <row r="96" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B96" s="20">
         <v>74</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B97" s="20">
         <v>75</v>
       </c>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="G97" s="23"/>
     </row>
-    <row r="98" spans="2:7" s="20" customFormat="1" ht="129" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="20" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B98" s="20">
         <v>76</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="99" spans="2:7" s="20" customFormat="1" ht="329.7" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="20" customFormat="1" ht="364.3" x14ac:dyDescent="0.4">
       <c r="B99" s="20">
         <v>77</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B100" s="20">
         <v>78</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B101" s="20">
         <v>79</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="102" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B102" s="20">
         <v>80</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="103" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B103" s="20">
         <v>81</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="20">
         <v>82</v>
       </c>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="G104" s="23"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="20">
         <v>83</v>
       </c>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="G105" s="23"/>
     </row>
-    <row r="106" spans="2:7" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B106" s="20">
         <v>84</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B107" s="20">
         <v>85</v>
       </c>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="G107" s="23"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="20">
         <v>86</v>
       </c>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="G108" s="23"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="20">
         <v>87</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B110" s="20">
         <v>88</v>
       </c>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="G110" s="23"/>
     </row>
-    <row r="111" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B111" s="20">
         <v>89</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B112" s="20">
         <v>90</v>
       </c>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="G112" s="23"/>
     </row>
-    <row r="113" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B113" s="20">
         <v>91</v>
       </c>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="G113" s="23"/>
     </row>
-    <row r="114" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B114" s="20">
         <v>92</v>
       </c>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="G114" s="23"/>
     </row>
-    <row r="115" spans="2:7" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B115" s="20">
         <v>93</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B116" s="20">
         <v>94</v>
       </c>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="G116" s="23"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="20">
         <v>95</v>
       </c>
@@ -7297,7 +7297,7 @@
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="20">
         <v>96</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="20">
         <v>97</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="20">
         <v>98</v>
       </c>
@@ -7327,7 +7327,7 @@
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="20">
         <v>99</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="20">
         <v>100</v>
       </c>
@@ -7372,21 +7372,21 @@
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="92.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.07421875" customWidth="1"/>
+    <col min="4" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="17" width="16.69140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="54" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="54" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -7457,12 +7457,12 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="55" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -7475,7 +7475,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="16" t="s">
         <v>264</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="P10" s="56"/>
       <c r="Q10" s="56"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>267</v>
       </c>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>268</v>
       </c>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>269</v>
       </c>
@@ -7539,80 +7539,80 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="15" spans="1:17" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="55" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="16" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" s="16" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="str">
         <f t="shared" ref="B37:B43" si="0">D38</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -7631,7 +7631,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>Gas Control Device/Control System Component</v>
@@ -7650,7 +7650,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Daily Cover</v>
@@ -7668,7 +7668,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Final Cover</v>
@@ -7686,7 +7686,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Intermediate Cover</v>
@@ -7704,7 +7704,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Leachate Management System</v>
@@ -7722,7 +7722,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -7740,25 +7740,25 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D44" s="7" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="50" t="str" cm="1">
         <f t="array" ref="B48:B58">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TOCOL(C64:M70, 1)))</f>
         <v>Collection system downtime</v>
@@ -7766,89 +7766,89 @@
       <c r="E48" s="7"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="52" t="str">
         <v>Construction - New Well Installation</v>
       </c>
       <c r="E49" s="7"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="53" t="str">
         <v>Construction - Well Raising or Horizontal Extension</v>
       </c>
       <c r="E50" s="7"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="51" t="str">
         <v>Cover integrity</v>
       </c>
       <c r="E51" s="7"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="50" t="str">
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
       <c r="E52" s="7"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="51" t="str">
         <v>Cracked/Broken Seal</v>
       </c>
       <c r="E53" s="7"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="50" t="str">
         <v>Damaged component</v>
       </c>
       <c r="E54" s="7"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="50" t="str">
         <v>Insufficient vacuum</v>
       </c>
       <c r="E55" s="7"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="52" t="str">
         <v>Offline Gas Collection Well(s)</v>
       </c>
       <c r="E56" s="7"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="53" t="str">
         <v>Other</v>
       </c>
       <c r="E57" s="7"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="51" t="str">
         <v>Uncontrolled Area (no gas collection infrastructure)</v>
       </c>
       <c r="E58" s="7"/>
       <c r="Q58"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" s="16" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:17" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="3" t="s">
         <v>288</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="2:17" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:17" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
         <v>289</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="2:17" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
         <v>291</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="10" t="s">
         <v>298</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="10" t="s">
         <v>304</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="6" t="s">
         <v>305</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="10" t="s">
         <v>306</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>307</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
         <v>308</v>
       </c>
@@ -8082,12 +8082,12 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B72" s="16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74:C125">_xlfn.HSTACK(_xlfn.TOCOL(_xlfn.IFS(C64:M70&lt;&gt;"",B64:B70),3),_xlfn.TOCOL(C64:M70,1))</f>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B75" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B76" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B77" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B78" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B79" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B80" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8178,7 +8178,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8259,7 +8259,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8331,7 +8331,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8520,7 +8520,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8546,7 +8546,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8555,21 +8555,21 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G126"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:7" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="55" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G136"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B137" s="17" t="s">
         <v>311</v>
       </c>
@@ -8578,12 +8578,12 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
         <v>35</v>
       </c>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B140" t="str" cm="1">
         <f t="array" ref="B140:B142">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B141" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -8612,7 +8612,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B142" t="str">
         <v>No leak was detected</v>
       </c>
@@ -8621,18 +8621,18 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G143"/>
     </row>
-    <row r="144" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:7" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="55" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G145"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="17" t="s">
         <v>311</v>
       </c>
@@ -8641,12 +8641,12 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B148" t="s">
         <v>35</v>
       </c>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B149" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150:B153">_carb_only_table_03[]</f>
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B152" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -8698,24 +8698,24 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B153" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G154"/>
     </row>
-    <row r="155" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:7" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="55" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G156"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B157" s="17" t="s">
         <v>311</v>
       </c>
@@ -8724,12 +8724,12 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B159" t="s">
         <v>35</v>
       </c>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B160" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B161" t="str" cm="1">
         <f t="array" ref="B161:B167">_carb_only_table_04[]</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B162" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B163" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B164" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B165" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B166" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8811,24 +8811,24 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B167" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G168"/>
     </row>
-    <row r="169" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="169" spans="2:7" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="55" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G170"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B171" s="17" t="s">
         <v>311</v>
       </c>
@@ -8837,12 +8837,12 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>35</v>
       </c>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B174" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B175" t="str" cm="1">
         <f t="array" aca="1" ref="B175:B178" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v>Offline Gas Collection Well(s)</v>
@@ -8874,7 +8874,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B176" t="str">
         <f ca="1"/>
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B177" t="str">
         <f ca="1"/>
         <v>Damaged component</v>
@@ -8896,58 +8896,58 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B178" t="str">
         <f ca="1"/>
         <v>Other</v>
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G179"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G180"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G181"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G182"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G183"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G184"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G185"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G186"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G187"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G188"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G189"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G190"/>
     </row>
-    <row r="191" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="191" spans="2:7" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="55" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G192"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B193" s="17" t="s">
         <v>311</v>
       </c>
@@ -8956,12 +8956,12 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B195" t="s">
         <v>35</v>
       </c>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B196" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>317</v>
       </c>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B198" t="str" cm="1">
         <f t="array" aca="1" ref="B198:B201" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v>Offline Gas Collection Well(s)</v>
@@ -9003,7 +9003,7 @@
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B199" t="str">
         <f ca="1"/>
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
@@ -9014,7 +9014,7 @@
       </c>
       <c r="G199"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B200" t="str">
         <f ca="1"/>
         <v>Damaged component</v>
@@ -9025,50 +9025,50 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B201" t="str">
         <f ca="1"/>
         <v>Other</v>
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G202"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G203"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G204"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G205"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G206"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G207"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G208"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G209"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G210"/>
     </row>
-    <row r="213" spans="2:7" s="55" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="213" spans="2:7" s="55" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="55" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B214" s="16"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B215" s="17" t="s">
         <v>311</v>
       </c>
@@ -9077,12 +9077,12 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B217" t="s">
         <v>35</v>
       </c>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B218" t="str" cm="1">
         <f t="array" ref="B218:B219">_carb_only_table_01[]</f>
         <v>Yes</v>
@@ -9102,7 +9102,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B219" t="str">
         <v>No</v>
       </c>
@@ -9133,19 +9133,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="15" t="s">
         <v>324</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>326</v>
       </c>
@@ -9208,18 +9208,18 @@
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="14" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -9251,12 +9251,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="15" t="s">
         <v>330</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>332</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>334</v>
       </c>
@@ -9296,24 +9296,24 @@
       <selection activeCell="A11" sqref="A11:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.07421875" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" customWidth="1"/>
+    <col min="4" max="4" width="32.3828125" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="21" t="s">
         <v>336</v>
       </c>
       <c r="C2" s="22"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -9323,26 +9323,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="15" t="s">
         <v>324</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>341</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>341</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>326</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>326</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>326</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>326</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>326</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>326</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>326</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>326</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>326</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>326</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>326</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>326</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>326</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>326</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>326</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>326</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>326</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>326</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>326</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>326</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>326</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>326</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>326</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>326</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>326</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>326</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>326</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>326</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>326</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>326</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>326</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>326</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>326</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>326</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>326</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>326</v>
       </c>
@@ -10023,22 +10023,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="12.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.87890625" customWidth="1"/>
-    <col min="5" max="5" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.84375" customWidth="1"/>
+    <col min="5" max="5" width="13.69140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.703125" customWidth="1"/>
-    <col min="13" max="13" width="19.29296875" customWidth="1"/>
+    <col min="8" max="8" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.69140625" customWidth="1"/>
+    <col min="13" max="13" width="19.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="63" t="s">
         <v>415</v>
       </c>
@@ -10054,7 +10054,7 @@
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
     </row>
-    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B3" s="68" t="s">
         <v>416</v>
       </c>
@@ -10070,7 +10070,7 @@
       <c r="L3" s="68"/>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B4" s="68" t="s">
         <v>417</v>
       </c>
@@ -10086,7 +10086,7 @@
       <c r="L4" s="68"/>
       <c r="M4" s="68"/>
     </row>
-    <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B5" s="68" t="s">
         <v>418</v>
       </c>
@@ -10102,7 +10102,7 @@
       <c r="L5" s="68"/>
       <c r="M5" s="68"/>
     </row>
-    <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.4">
       <c r="B6" s="68" t="s">
         <v>419</v>
       </c>
@@ -10118,7 +10118,7 @@
       <c r="L6" s="68"/>
       <c r="M6" s="68"/>
     </row>
-    <row r="7" spans="2:13" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B7" s="57" t="s">
         <v>420</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -10170,7 +10170,7 @@
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -10184,7 +10184,7 @@
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -10198,7 +10198,7 @@
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -10212,7 +10212,7 @@
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -10226,7 +10226,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -10240,7 +10240,7 @@
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -10254,7 +10254,7 @@
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="62"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
@@ -10268,7 +10268,7 @@
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="62"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
@@ -10282,7 +10282,7 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -10296,7 +10296,7 @@
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
@@ -10310,7 +10310,7 @@
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="62"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -10324,7 +10324,7 @@
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="62"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
@@ -10338,7 +10338,7 @@
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
@@ -10352,7 +10352,7 @@
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
@@ -10366,7 +10366,7 @@
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
@@ -10380,7 +10380,7 @@
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -10394,7 +10394,7 @@
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="62"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
@@ -10408,7 +10408,7 @@
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
@@ -10422,7 +10422,7 @@
       <c r="L26" s="62"/>
       <c r="M26" s="62"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
       <c r="D27" s="62"/>
@@ -10452,17 +10452,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10697,6 +10686,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
   <ds:schemaRefs>
@@ -10706,17 +10706,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10735,6 +10724,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>
